--- a/data/records.xlsx
+++ b/data/records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,17 +509,167 @@
           <t>Fahad Ahmed Mohammed</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>502992932</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>20251116-004</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>QUO-20251116-002</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20251116-002</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>INV-20251116-001</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fahad Ahmed Mohammed</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>QUO-20251116-004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20251116-002</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>INV-20251116-002</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>QUO-20251116-004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20251116-006</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>QUO-20251116-001</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3300</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fahad Ahmed Mohamed</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>0502992932</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Abu Dhabi - Al Shamkha</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/records.xlsx
+++ b/data/records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,7 +633,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20251116-006</t>
+          <t>20251116-002</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -643,33 +643,62 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>R-20251116-20251116-002-1</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fahad Ahmed Mohammed</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20251116-007</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>q</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>QUO-20251116-001</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>3300</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Fahad Ahmed Mohamed</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0502992932</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="E7" t="n">
+        <v>4680</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Abu Dhabi - Al Shamkha</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/records.xlsx
+++ b/data/records.xlsx
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4680</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>

--- a/data/records.xlsx
+++ b/data/records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20251116-007</t>
+          <t>20251116-002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -680,25 +680,411 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>q</t>
+          <t>i</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>QUO-20251116-001</t>
+          <t>INV-20251116-003</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>gfgsfhwrth</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>Abu Dhabi - Al Shamkha</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>QUO-20251116-004</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20251116-002</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>INV-20251116-004</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fahad Ahmed Mohammed</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>QUO-20251116-004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20251116-002</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>INV-20251116-005</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>QUO-20251116-004</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20251116-002</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>INV-20251116-006</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fahad Ahmed Mohammed</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>QUO-20251116-004</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20251116-002</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>INV-20251116-007</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>QUO-20251116-004</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20251116-012</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>QUO-20251116-001</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20251116-002</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>INV-20251117-008</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2200</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fahad Ahmed Mohammed</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>QUO-20251116-004</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20251117-003</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>QUO-20251117-004</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3300</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20251117-003</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>QUO-20251117-001</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>20251116-002</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>INV-20251118-009</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>949.9299999999999</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fahad Ahmed Mohammed</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>QUO-20251116-004</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20251118-002</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>QUO-20251118-003</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1230</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/records.xlsx
+++ b/data/records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,6 +1086,171 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20251119-002</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>QUO-20251119-001</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>115</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20251120-003</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>QUO-20251120-005</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>985</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20251120-004</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>QUO-20251120-003</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>425</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20251120-004</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>QUO-20251120-001</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>14030</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20251120-005</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>QUO-20251120-033</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>14030</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/records.xlsx
+++ b/data/records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1155,7 +1155,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20251120-004</t>
+          <t>20251120-005</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1170,11 +1170,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>QUO-20251120-003</t>
+          <t>QUO-20251120-033</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>425</v>
+        <v>14030</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1188,7 +1188,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20251120-004</t>
+          <t>20251116-002</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1198,30 +1198,40 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>q</t>
+          <t>i</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>QUO-20251120-001</t>
+          <t>INV-20251120-010</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14030</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+        <v>290</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Fahad Ahmed Mohammed</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>502992932</v>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>Abu Dhabi - Al Shamkha</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>QUO-20251116-004</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20251120-005</t>
+          <t>20251116-002</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1231,18 +1241,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>q</t>
+          <t>r</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>QUO-20251120-033</t>
+          <t>R-20251120-20251116-002-2</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>14030</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Fahad Ahmed Mohammed</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
@@ -1250,6 +1264,348 @@
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20251120-005</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>INV-20251120-011</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Mr Bukhari</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20251120-005</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>R-20251120-20251120-005-1</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Mr Bukhari</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20251120-007</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>QUO-20251120-001</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>230</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Fahad Ahmed</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20251120-007</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>QUO-20251120-003</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>230</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20251121-002</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>QUO-20251121-002</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>290</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20251121-004</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>QUO-20251121-004</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>435</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20251121-005</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>QUO-20251121-003</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>580</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20251121-005</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>QUO-20251121-005</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20251121-007</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>QUO-20251121-008</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20251121-007</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>QUO-20251121-001</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>580</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Abu Dhabi - Al Shamkha</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/records.xlsx
+++ b/data/records.xlsx
@@ -1445,7 +1445,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20251121-004</t>
+          <t>20251121-005</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1460,11 +1460,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>QUO-20251121-004</t>
+          <t>QUO-20251121-003</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>435</v>
+        <v>580</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -1493,11 +1493,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>QUO-20251121-003</t>
+          <t>QUO-20251121-005</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>580</v>
+        <v>1015</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20251121-005</t>
+          <t>20251121-007</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>QUO-20251121-005</t>
+          <t>QUO-20251121-008</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1559,11 +1559,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>QUO-20251121-008</t>
+          <t>QUO-20251121-001</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1015</v>
+        <v>7540</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1592,11 +1592,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>QUO-20251121-001</t>
+          <t>QUO-20251121-004</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>580</v>
+        <v>7540</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
